--- a/biology/Histoire de la zoologie et de la botanique/Gustav_Mayr/Gustav_Mayr.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Gustav_Mayr/Gustav_Mayr.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Gustav Ludwig Mayr  (12 octobre 1830, Vienne - 14 juillet 1908, Vienne) est un entomologiste et professeur autrichien à Pest et à Vienne, grand spécialiste des hyménoptères et surtout des fourmis.
 </t>
@@ -511,13 +523,15 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Il naît dans la famille d'un avocat, Ignaz Mayr, et de son épouse, née Rosalie Holzer. Après avoir terminé le lycée classique et étudié à la faculté de philosophie, Mayr entreprend des études de médecine à Vienne. Il est membre à partir de 1851 de la Société de botanique et de zoologie de Vienne (Zoologisch-Botanische Gesellschaft). Il est docteur en médecine en 1856, puis enseigne les sciences naturelles et la chimie dans des établissements secondaires à Pest, mais il perd son poste en 1861 à cause des lois de magyarisation qui interdisent l'enseignement en allemand dans les écoles secondaires hongroises. Il déménage à Vienne où il enseigne l'histoire naturelle dans une Oberrealschule, jusqu'à sa retraite en 1892. Le titre honorifique de conseiller impérial (kaiserlicher Rat) lui est alors décerné, après avoir reçu la croix du mérite d'or en 1876.
 Mayr se passionne pour l'entomologie et en particulier pour les hyménoptères et se spécialise dans la systématique des fourmis. Une de ses collections d'hyménoptères rassemblant 1 350 espèces et représentant 5 500 spécimens environ est offerte par lui en 1896 au Muséum d'histoire naturelle de Vienne. Une autre collection de 2 180 espèces de fourmis, et d'autres collections d'insectes sont léguées par testament à la Société de botanique et de zoologie de Vienne qu'elle vend plus tard au Muséum, n'ayant pas les moyens de la conserver.
 Entre 1862 et 1901, il a décrit cinquante-huit genres de fourmis (dont Acromyrmex, Anochetus, Aphaenogaster, Camponotus, Formicoxenus, Leptothorax, Monomorium, Tetramorium) et plus de cinq cents nouvelles espèces de fourmis. Il décrit aussi des collections uniques de fourmis fossiles conservées dans l'ambre de la Baltique (1868), de fourmis du Tibet rapportées par les expéditions de Przewalski et de fourmis du Turkestan récoltées par Alexeï Fedtchenko. C'est lui qui est chargé de la rédaction de la partie zoologique concernant les fourmis du rapport de voyage de l'expédition du Novara autour du monde (1857-1859).
 Il travaille aussi sur les hémiptères. Sa collection comporte ainsi 2 960 espèces de chalcidoïdés, 923 sortes de Cynipidae et 1 350 d'hémiptères.
-Une cinquantaine d'espèces d'hyménoptères portent l'épithète mayri[1] et trois genres de fourmis lui sont dédiés :
+Une cinquantaine d'espèces d'hyménoptères portent l'épithète mayri et trois genres de fourmis lui sont dédiés :
 Mayria Forel (1879)
 Eumayria Ashmead (1887)
 Mayriella Forel (1902)
@@ -564,7 +578,9 @@
           <t>Quelques publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Die europäischen Formiciden: mit einer lithographischen Tafel, 1861
 Formicidae (dans la partie zoologique du rapport de l'expédition du Novara), Vienne, 1865
